--- a/Copilot_excel/data/Book1.xlsx
+++ b/Copilot_excel/data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuaiwang/Documents/video_project/ben_tech_python/Copilot_excel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3A2F653-3BED-6A41-A776-862C3493B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F601082F-9A89-8341-94F0-776B438E0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="25220" windowHeight="14480" xr2:uid="{6513EF52-28D6-BB49-A222-4F4100584516}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
